--- a/output/url_screenshot_map.xlsx
+++ b/output/url_screenshot_map.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>file</t>
   </si>
@@ -29,25 +29,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>https://prnt.sc/B_vIsoODXXoo</t>
+    <t>https://prnt.sc/4XoJrn0d1TCr</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>https://prnt.sc/3ixjMtxhtlG5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>https://prnt.sc/7KUMVUXwYIdF</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>https://prnt.sc/OM-KqSmP0Rk3</t>
+    <t>https://prnt.sc/-6eLyZnt7IyD</t>
   </si>
 </sst>
 </file>
@@ -92,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,7 +111,7 @@
         <v>1.0</v>
       </c>
       <c r="D2" t="n">
-        <f>HYPERLINK("https://prnt.sc/B_vIsoODXXoo")</f>
+        <f>HYPERLINK("https://prnt.sc/4XoJrn0d1TCr")</f>
         <v>0.0</v>
       </c>
     </row>
@@ -138,37 +126,7 @@
         <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <f>HYPERLINK("https://prnt.sc/3ixjMtxhtlG5")</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D4" t="n">
-        <f>HYPERLINK("https://prnt.sc/7KUMVUXwYIdF")</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D5" t="n">
-        <f>HYPERLINK("https://prnt.sc/OM-KqSmP0Rk3")</f>
+        <f>HYPERLINK("https://prnt.sc/-6eLyZnt7IyD")</f>
         <v>0.0</v>
       </c>
     </row>
